--- a/xlsx2map/testfiles/output.xlsx
+++ b/xlsx2map/testfiles/output.xlsx
@@ -11,6 +11,125 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>项目编号</t>
+  </si>
+  <si>
+    <t>任务结束时间</t>
+  </si>
+  <si>
+    <t>最晚工时结束时间</t>
+  </si>
+  <si>
+    <t>任务最终分派时间</t>
+  </si>
+  <si>
+    <t>任务成员创建时间</t>
+  </si>
+  <si>
+    <t>任务创建时间</t>
+  </si>
+  <si>
+    <t>PM-2021-7591</t>
+  </si>
+  <si>
+    <t>PM-2020-5830</t>
+  </si>
+  <si>
+    <t>PM-2022-0165</t>
+  </si>
+  <si>
+    <t>PM-2021-7481</t>
+  </si>
+  <si>
+    <t>PM-2022-0328</t>
+  </si>
+  <si>
+    <t>PM-2021-8266</t>
+  </si>
+  <si>
+    <t>PM-2021-8387</t>
+  </si>
+  <si>
+    <t>PM-2021-6523</t>
+  </si>
+  <si>
+    <t>PM-2022-0076</t>
+  </si>
+  <si>
+    <t>PM-2021-8715</t>
+  </si>
+  <si>
+    <t>PM-2021-8057</t>
+  </si>
+  <si>
+    <t>PM-2021-6589</t>
+  </si>
+  <si>
+    <t>PM-2022-0309</t>
+  </si>
+  <si>
+    <t>PM-2020-3233</t>
+  </si>
+  <si>
+    <t>PM-2021-7823</t>
+  </si>
+  <si>
+    <t>PM-2021-8871</t>
+  </si>
+  <si>
+    <t>PM-2021-6872</t>
+  </si>
+  <si>
+    <t>PM-2022-0415</t>
+  </si>
+  <si>
+    <t>PM-2022-0081</t>
+  </si>
+  <si>
+    <t>PM-2021-7813</t>
+  </si>
+  <si>
+    <t>PM-2020-4307</t>
+  </si>
+  <si>
+    <t>PM-2021-8756</t>
+  </si>
+  <si>
+    <t>PM-2022-0269</t>
+  </si>
+  <si>
+    <t>PM-2021-7656</t>
+  </si>
+  <si>
+    <t>PM-2021-9311</t>
+  </si>
+  <si>
+    <t>PM-2022-0398</t>
+  </si>
+  <si>
+    <t>PM-2021-7198</t>
+  </si>
+  <si>
+    <t>PM-2020-3229</t>
+  </si>
+  <si>
+    <t>PM-2022-0407</t>
+  </si>
+  <si>
+    <t>PM-2022-0438</t>
+  </si>
+  <si>
+    <t>PM-2021-9285</t>
+  </si>
+  <si>
+    <t>PM-2022-0544</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -43,8 +162,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+      <alignment/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -317,6 +439,1021 @@
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44694.805555555555</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44690.33472222222</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44690.3347337963</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44688.583333333336</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44687.334027777775</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44687.334699074076</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44686.5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44683.65972222222</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44683.65972222222</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44694.75</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44690.333333333336</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44690.33369212963</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44697.972916666666</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44697.96837962963</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44697.96837962963</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44688.75</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44691.87094907407</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44691.87094907407</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44694.75</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44690.334027777775</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44690.334710648145</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44687.76388888889</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44683.33541666667</v>
+      </c>
+      <c r="F9" s="1">
+        <v>44683.33542824074</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44687.37569444445</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44683.33472222222</v>
+      </c>
+      <c r="F10" s="1">
+        <v>44683.33511574074</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44694.37569444445</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44690.333333333336</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44690.33362268518</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44694.75</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44690.570439814815</v>
+      </c>
+      <c r="F12" s="1">
+        <v>44690.570439814815</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44691.875</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44691.75811342592</v>
+      </c>
+      <c r="F13" s="1">
+        <v>44691.75811342592</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44688.77777777778</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44683.33472222222</v>
+      </c>
+      <c r="F14" s="1">
+        <v>44683.33511574074</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44694.854166666664</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44694.665497685186</v>
+      </c>
+      <c r="F15" s="1">
+        <v>44694.665497685186</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44689.375</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44692.52483796296</v>
+      </c>
+      <c r="F16" s="1">
+        <v>44692.52483796296</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44690.959027777775</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44683.33472222222</v>
+      </c>
+      <c r="F17" s="1">
+        <v>44683.33515046296</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44708.75</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44704.333333333336</v>
+      </c>
+      <c r="F18" s="1">
+        <v>44704.33378472222</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44699.416666666664</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44691.49875</v>
+      </c>
+      <c r="F19" s="1">
+        <v>44691.49875</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44694.75</v>
+      </c>
+      <c r="D20" s="1">
+        <v>44690.333333333336</v>
+      </c>
+      <c r="F20" s="1">
+        <v>44690.33369212963</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44696.4375</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44696.377488425926</v>
+      </c>
+      <c r="F21" s="1">
+        <v>44696.377488425926</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44697.75</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44697.333333333336</v>
+      </c>
+      <c r="F22" s="1">
+        <v>44697.33372685185</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44694.770833333336</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44690.333333333336</v>
+      </c>
+      <c r="F23" s="1">
+        <v>44690.33393518518</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44701.791666666664</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44697.334027777775</v>
+      </c>
+      <c r="F24" s="1">
+        <v>44697.33440972222</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1">
+        <v>44688.73263888889</v>
+      </c>
+      <c r="D25" s="1">
+        <v>44683.33472222222</v>
+      </c>
+      <c r="F25" s="1">
+        <v>44683.335324074076</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>44680.95138888889</v>
+      </c>
+      <c r="D26" s="1">
+        <v>44676.334027777775</v>
+      </c>
+      <c r="F26" s="1">
+        <v>44676.33462962963</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44654.354166666664</v>
+      </c>
+      <c r="D27" s="1">
+        <v>44648.33541666667</v>
+      </c>
+      <c r="F27" s="1">
+        <v>44648.336018518516</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1">
+        <v>44659.947916666664</v>
+      </c>
+      <c r="D28" s="1">
+        <v>44655.334027777775</v>
+      </c>
+      <c r="F28" s="1">
+        <v>44655.33453703704</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1">
+        <v>44668.99930555555</v>
+      </c>
+      <c r="D29" s="1">
+        <v>44662.334027777775</v>
+      </c>
+      <c r="F29" s="1">
+        <v>44662.3346875</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44675.84722222222</v>
+      </c>
+      <c r="D30" s="1">
+        <v>44669.33472222222</v>
+      </c>
+      <c r="F30" s="1">
+        <v>44669.334965277776</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1">
+        <v>44653.729166666664</v>
+      </c>
+      <c r="D31" s="1">
+        <v>44648.33541666667</v>
+      </c>
+      <c r="F31" s="1">
+        <v>44648.336018518516</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1">
+        <v>44659.729166666664</v>
+      </c>
+      <c r="D32" s="1">
+        <v>44655.334027777775</v>
+      </c>
+      <c r="F32" s="1">
+        <v>44655.33453703704</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1">
+        <v>44666.729166666664</v>
+      </c>
+      <c r="D33" s="1">
+        <v>44662.334027777775</v>
+      </c>
+      <c r="F33" s="1">
+        <v>44662.3346875</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1">
+        <v>44675.729166666664</v>
+      </c>
+      <c r="D34" s="1">
+        <v>44669.33472222222</v>
+      </c>
+      <c r="F34" s="1">
+        <v>44669.334965277776</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44688.729166666664</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44683.33472222222</v>
+      </c>
+      <c r="F35" s="1">
+        <v>44683.335324074076</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44680.729166666664</v>
+      </c>
+      <c r="D36" s="1">
+        <v>44676.334027777775</v>
+      </c>
+      <c r="F36" s="1">
+        <v>44676.33462962963</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="1">
+        <v>44694.729166666664</v>
+      </c>
+      <c r="D37" s="1">
+        <v>44690.333333333336</v>
+      </c>
+      <c r="F37" s="1">
+        <v>44690.33393518518</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44701.729166666664</v>
+      </c>
+      <c r="D38" s="1">
+        <v>44697.334027777775</v>
+      </c>
+      <c r="F38" s="1">
+        <v>44697.33440972222</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="1">
+        <v>44709.833333333336</v>
+      </c>
+      <c r="D39" s="1">
+        <v>44704.333333333336</v>
+      </c>
+      <c r="F39" s="1">
+        <v>44704.33399305555</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44680.75</v>
+      </c>
+      <c r="D40" s="1">
+        <v>44676.33472222222</v>
+      </c>
+      <c r="F40" s="1">
+        <v>44676.33478009259</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="1">
+        <v>44688.75</v>
+      </c>
+      <c r="D41" s="1">
+        <v>44683.33472222222</v>
+      </c>
+      <c r="F41" s="1">
+        <v>44683.33537037037</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="1">
+        <v>44694.75</v>
+      </c>
+      <c r="D42" s="1">
+        <v>44690.33472222222</v>
+      </c>
+      <c r="F42" s="1">
+        <v>44690.33474537037</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="1">
+        <v>44701.75</v>
+      </c>
+      <c r="D43" s="1">
+        <v>44697.334027777775</v>
+      </c>
+      <c r="F43" s="1">
+        <v>44697.334189814814</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44694.708333333336</v>
+      </c>
+      <c r="D44" s="1">
+        <v>44693.738599537035</v>
+      </c>
+      <c r="F44" s="1">
+        <v>44691.64938657408</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="1">
+        <v>44692.791666666664</v>
+      </c>
+      <c r="D45" s="1">
+        <v>44692.47489583334</v>
+      </c>
+      <c r="F45" s="1">
+        <v>44692.47489583334</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="1">
+        <v>44711.75</v>
+      </c>
+      <c r="D46" s="1">
+        <v>44711.4515625</v>
+      </c>
+      <c r="F46" s="1">
+        <v>44711.4515625</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="1">
+        <v>44700.458333333336</v>
+      </c>
+      <c r="D47" s="1">
+        <v>44700.508576388886</v>
+      </c>
+      <c r="F47" s="1">
+        <v>44700.50858796296</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="1">
+        <v>44686.75</v>
+      </c>
+      <c r="D48" s="1">
+        <v>44686.56637731481</v>
+      </c>
+      <c r="F48" s="1">
+        <v>44686.56637731481</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="1">
+        <v>44686.8125</v>
+      </c>
+      <c r="D49" s="1">
+        <v>44686.616956018515</v>
+      </c>
+      <c r="F49" s="1">
+        <v>44686.616956018515</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="1">
+        <v>44687.833333333336</v>
+      </c>
+      <c r="D50" s="1">
+        <v>44687.456412037034</v>
+      </c>
+      <c r="F50" s="1">
+        <v>44687.456412037034</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="1">
+        <v>44702.833333333336</v>
+      </c>
+      <c r="D51" s="1">
+        <v>44702.84619212963</v>
+      </c>
+      <c r="F51" s="1">
+        <v>44702.84619212963</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="1">
+        <v>44695.979166666664</v>
+      </c>
+      <c r="D52" s="1">
+        <v>44697.72556712963</v>
+      </c>
+      <c r="F52" s="1">
+        <v>44697.72556712963</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="1">
+        <v>44704.958333333336</v>
+      </c>
+      <c r="D53" s="1">
+        <v>44704.47306712963</v>
+      </c>
+      <c r="F53" s="1">
+        <v>44704.47306712963</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="1">
+        <v>44709.99998842592</v>
+      </c>
+      <c r="D54" s="1">
+        <v>44704.333333333336</v>
+      </c>
+      <c r="F54" s="1">
+        <v>44704.33399305555</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="1">
+        <v>44690.333333333336</v>
+      </c>
+      <c r="D55" s="1">
+        <v>44683.33472222222</v>
+      </c>
+      <c r="F55" s="1">
+        <v>44683.33537037037</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="1">
+        <v>44702.333333333336</v>
+      </c>
+      <c r="D56" s="1">
+        <v>44697.334027777775</v>
+      </c>
+      <c r="F56" s="1">
+        <v>44697.334189814814</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="1">
+        <v>44696.833333333336</v>
+      </c>
+      <c r="D57" s="1">
+        <v>44690.33472222222</v>
+      </c>
+      <c r="F57" s="1">
+        <v>44690.33474537037</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="1">
+        <v>44700.791666666664</v>
+      </c>
+      <c r="D58" s="1">
+        <v>44700.30100694444</v>
+      </c>
+      <c r="F58" s="1">
+        <v>44700.30100694444</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="1">
+        <v>44711.708333333336</v>
+      </c>
+      <c r="D59" s="1">
+        <v>44711.62355324074</v>
+      </c>
+      <c r="F59" s="1">
+        <v>44711.62355324074</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="1">
+        <v>44701.73611111111</v>
+      </c>
+      <c r="D60" s="1">
+        <v>44697.334027777775</v>
+      </c>
+      <c r="F60" s="1">
+        <v>44697.33440972222</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="1">
+        <v>44694.73611111111</v>
+      </c>
+      <c r="D61" s="1">
+        <v>44690.333333333336</v>
+      </c>
+      <c r="F61" s="1">
+        <v>44690.33393518518</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="1">
+        <v>44688.73611111111</v>
+      </c>
+      <c r="D62" s="1">
+        <v>44683.33472222222</v>
+      </c>
+      <c r="F62" s="1">
+        <v>44683.335324074076</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="1">
+        <v>44653.729166666664</v>
+      </c>
+      <c r="D63" s="1">
+        <v>44648.33541666667</v>
+      </c>
+      <c r="F63" s="1">
+        <v>44648.336018518516</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="1">
+        <v>44660.37222222222</v>
+      </c>
+      <c r="D64" s="1">
+        <v>44655.334027777775</v>
+      </c>
+      <c r="F64" s="1">
+        <v>44655.33453703704</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="1">
+        <v>44666.729166666664</v>
+      </c>
+      <c r="D65" s="1">
+        <v>44662.334027777775</v>
+      </c>
+      <c r="F65" s="1">
+        <v>44662.3346875</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="1">
+        <v>44673.73263888889</v>
+      </c>
+      <c r="D66" s="1">
+        <v>44669.33472222222</v>
+      </c>
+      <c r="F66" s="1">
+        <v>44669.334965277776</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="1">
+        <v>44680.73611111111</v>
+      </c>
+      <c r="D67" s="1">
+        <v>44676.334027777775</v>
+      </c>
+      <c r="F67" s="1">
+        <v>44676.33462962963</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="1">
+        <v>44681.333333333336</v>
+      </c>
+      <c r="D68" s="1">
+        <v>44676.33472222222</v>
+      </c>
+      <c r="F68" s="1">
+        <v>44676.33478009259</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="1">
+        <v>44689.37569444445</v>
+      </c>
+      <c r="D69" s="1">
+        <v>44683.33472222222</v>
+      </c>
+      <c r="F69" s="1">
+        <v>44683.33537037037</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="1">
+        <v>44706.416666666664</v>
+      </c>
+      <c r="D70" s="1">
+        <v>44704.333333333336</v>
+      </c>
+      <c r="F70" s="1">
+        <v>44704.33399305555</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="1">
+        <v>44694.833333333336</v>
+      </c>
+      <c r="D71" s="1">
+        <v>44690.33472222222</v>
+      </c>
+      <c r="F71" s="1">
+        <v>44690.33474537037</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="1">
+        <v>44701.708333333336</v>
+      </c>
+      <c r="D72" s="1">
+        <v>44697.334027777775</v>
+      </c>
+      <c r="F72" s="1">
+        <v>44697.334189814814</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>